--- a/homework01/messy-project-directory/Data_sets/Survey _data_tidy.xlsx
+++ b/homework01/messy-project-directory/Data_sets/Survey _data_tidy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrodrigu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nrodrigu/Desktop/tcfb-homework01/homeworks/homework01/messy-project-directory/Data_sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E52AC5-FDBB-5240-8DF8-83E051F03408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EA4FAD-2E8A-0E46-914B-33C84CE6152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="820" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,6 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -128,7 +131,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +523,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -564,7 +567,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -588,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CF5703-E326-694C-9696-8D186CEA5EA2}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
